--- a/Electromagnetism_lab/Lab_1_Equipotential_lines/datos_equipotenciales.xlsx
+++ b/Electromagnetism_lab/Lab_1_Equipotential_lines/datos_equipotenciales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Diego\Desktop\Universidad\semestre 4\LAB DE FÍSICA II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BBCDB2-81DD-4C18-8A59-DFB7C6BEF450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4108F30-4E6D-42C3-B567-7A9E0B8DAFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{2E7F3FBD-84A9-41FF-B562-E6D91BD0896F}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +759,7 @@
         <v>-2.5</v>
       </c>
       <c r="E12" s="1">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
